--- a/Excel/095_Testes_Entrevistas_3.xlsx
+++ b/Excel/095_Testes_Entrevistas_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Testes Entrevistas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D630125F-CC09-44D6-9892-B8C75F5C68E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D0084-3646-4FA1-AA02-5DAF56045767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 3" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -47,9 +41,6 @@
     <t>Osasco</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>São Paulo</t>
   </si>
   <si>
@@ -162,51 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">     Clevison Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4550             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7494             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4820             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14264             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9988             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4226             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19160             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17854             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12630             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17608             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5740             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13700             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2714             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3886             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5982             </t>
   </si>
   <si>
     <t>PERGUNTAS PREPARATÓRIAS PARA ENTREVISTAS E CONCURSOS</t>
@@ -396,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,25 +363,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,137 +708,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D957BC4-26C5-4A20-AE58-7946F32FE6C5}">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="113.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="4.23046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="113.69140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" s="10" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" s="10" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="2:14" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="2:14" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="2:14" s="12" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="13" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="18" spans="2:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" ht="26.15" x14ac:dyDescent="0.4">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="13" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="18" spans="2:3" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="2:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -902,17 +859,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA5FE51-CFAE-4142-8D28-1C37D0B58A4C}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -922,372 +881,372 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D1" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>14624</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2714</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>4550</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>7494</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4820</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>14264</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>9988</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>4226</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>19160</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>17854</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>7494</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12630</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>17608</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>5740</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13700</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>2714</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>3886</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>5982</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>15632</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>5740</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>11340</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>2290</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>7530</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>2345</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>3886</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>14624</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1297,19 +1256,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846EAB3A-2A42-43BF-9C19-719715A6571A}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.53515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="31.84375" customWidth="1"/>
+    <col min="5" max="5" width="31.07421875" customWidth="1"/>
+    <col min="6" max="6" width="22.765625" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1320,228 +1282,472 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A2" s="19">
+        <f>4550      *1</f>
+        <v>4550</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>VLOOKUP(A2,Dados!A:B,2,FALSE)</f>
+        <v>Celulares</v>
+      </c>
       <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>VLOOKUP(G2,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G2" t="str">
+        <f>TRIM(E2)</f>
+        <v>Osasco</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>7494</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(A3,Dados!A:B,2,FALSE)</f>
+        <v>Roupas</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>VLOOKUP(G3,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G27" si="0">TRIM(E3)</f>
+        <v>Osasco</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>4820</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,Dados!A:B,2,FALSE)</f>
+        <v>Utensilio</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="E3" s="5" t="s">
+      <c r="F4" s="2" t="str">
+        <f>VLOOKUP(G4,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Cachoeira</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A5" s="18">
+        <f>14264             *1</f>
+        <v>14264</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,Dados!A:B,2,FALSE)</f>
+        <v>Roupas</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(G5,Dados!C:D,2,FALSE)</f>
+        <v>Paraná</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Barracão</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A6" s="18">
+        <f>9988             *1</f>
+        <v>9988</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6,Dados!A:B,2,FALSE)</f>
+        <v>Utensilio</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>VLOOKUP(G6,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Guarulhos</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A7" s="18">
+        <f>4226             *1</f>
+        <v>4226</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7,Dados!A:B,2,FALSE)</f>
+        <v>Utensilio</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>VLOOKUP(G7,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Guarulhos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A8" s="18">
+        <f>19160             *1</f>
+        <v>19160</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8,Dados!A:B,2,FALSE)</f>
+        <v>Móveis</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>VLOOKUP(G8,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Guarulhos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A9" s="18">
+        <f>17854             *1</f>
+        <v>17854</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP(A9,Dados!A:B,2,FALSE)</f>
+        <v>Utensilio</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>VLOOKUP(G9,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Campinas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A10" s="18">
+        <f>7494             *1</f>
+        <v>7494</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10,Dados!A:B,2,FALSE)</f>
+        <v>Roupas</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>VLOOKUP(G10,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Campinas</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A11" s="18">
+        <f>12630             *1</f>
+        <v>12630</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11,Dados!A:B,2,FALSE)</f>
+        <v>Celulares</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>VLOOKUP(G11,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Campinas</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A12" s="18">
+        <f>17608             *1</f>
+        <v>17608</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP(A12,Dados!A:B,2,FALSE)</f>
+        <v>Utensilio</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>VLOOKUP(G12,Dados!C:D,2,FALSE)</f>
+        <v>Ceará</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Aurora</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A13" s="18">
+        <f>5740             *1</f>
+        <v>5740</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>VLOOKUP(A13,Dados!A:B,2,FALSE)</f>
+        <v>Roupas</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>VLOOKUP(G13,Dados!C:D,2,FALSE)</f>
+        <v>Ceará</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Aurora</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A14" s="18">
+        <f>13700             *1</f>
+        <v>13700</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>VLOOKUP(A14,Dados!A:B,2,FALSE)</f>
+        <v>Eletronicos</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>VLOOKUP(G14,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Carapicuíba</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" s="18">
+        <f>2714             *1</f>
+        <v>2714</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>VLOOKUP(A15,Dados!A:B,2,FALSE)</f>
+        <v>Roupas</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>VLOOKUP(G15,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Carapicuíba</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" s="18">
+        <f>3886             *1</f>
+        <v>3886</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>VLOOKUP(A16,Dados!A:B,2,FALSE)</f>
+        <v>Roupas</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>VLOOKUP(G16,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carapicuíba</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" s="18">
+        <f>5982             *1</f>
+        <v>5982</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>VLOOKUP(A17,Dados!A:B,2,FALSE)</f>
+        <v>Utensilio</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>VLOOKUP(G17,Dados!C:D,2,FALSE)</f>
+        <v>Paraná</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Barracão</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>VLOOKUP(G18,Dados!C:D,2,FALSE)</f>
+        <v>Paraná</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Cafelândia</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>VLOOKUP(G19,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Abaíra</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>VLOOKUP(G20,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Abaíra</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E18" s="2" t="s">
+      <c r="F21" s="2" t="str">
+        <f>VLOOKUP(G21,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Cachoeira</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f>VLOOKUP(G22,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Cachoeira</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E19" s="2" t="s">
+      <c r="F23" s="2" t="str">
+        <f>VLOOKUP(G23,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Abaíra</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f>VLOOKUP(G24,Dados!C:D,2,FALSE)</f>
+        <v>Bahia</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Cachoeira</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E20" s="2" t="s">
+      <c r="F25" s="2" t="str">
+        <f>VLOOKUP(G25,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Limeira</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E25" s="2" t="s">
+      <c r="F26" s="2" t="str">
+        <f>VLOOKUP(G26,Dados!C:D,2,FALSE)</f>
+        <v>São Paulo</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Limeira</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="str">
+        <f>VLOOKUP(G27,Dados!C:D,2,FALSE)</f>
+        <v>Ceará</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Cedro</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Excel/095_Testes_Entrevistas_3.xlsx
+++ b/Excel/095_Testes_Entrevistas_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D0084-3646-4FA1-AA02-5DAF56045767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636746F-A91E-40B0-9F4B-9245802ED73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
   </bookViews>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -371,6 +371,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -381,15 +387,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,51 +719,51 @@
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" s="10" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" s="10" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B5" s="13" t="s">
@@ -781,28 +778,28 @@
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:14" ht="26.15" x14ac:dyDescent="0.4">
       <c r="D11" s="12"/>
@@ -811,36 +808,36 @@
       <c r="G11" s="12"/>
     </row>
     <row r="13" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="18" spans="2:3" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="2:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -881,7 +878,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1259,7 +1256,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1268,10 +1265,10 @@
     <col min="2" max="2" width="31.84375" customWidth="1"/>
     <col min="5" max="5" width="31.07421875" customWidth="1"/>
     <col min="6" max="6" width="22.765625" customWidth="1"/>
-    <col min="7" max="7" width="10.3828125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1282,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A2" s="19">
+    <row r="2" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A2" s="14">
         <f>4550      *1</f>
         <v>4550</v>
       </c>
@@ -1298,15 +1295,11 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>VLOOKUP(G2,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E2),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G2" t="str">
-        <f>TRIM(E2)</f>
-        <v>Osasco</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>7494</v>
       </c>
@@ -1318,15 +1311,11 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>VLOOKUP(G3,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E3),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G27" si="0">TRIM(E3)</f>
-        <v>Osasco</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>4820</v>
       </c>
@@ -1338,16 +1327,12 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>VLOOKUP(G4,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E4),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>Cachoeira</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A5" s="18">
+    </row>
+    <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
         <f>14264             *1</f>
         <v>14264</v>
       </c>
@@ -1359,16 +1344,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>VLOOKUP(G5,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E5),Dados!C:D,2,FALSE)</f>
         <v>Paraná</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>Barracão</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A6" s="18">
+    </row>
+    <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
         <f>9988             *1</f>
         <v>9988</v>
       </c>
@@ -1380,16 +1361,12 @@
         <v>30</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>VLOOKUP(G6,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E6),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>Guarulhos</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A7" s="18">
+    </row>
+    <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
         <f>4226             *1</f>
         <v>4226</v>
       </c>
@@ -1401,16 +1378,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>VLOOKUP(G7,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E7),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>Guarulhos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A8" s="18">
+    </row>
+    <row r="8" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
         <f>19160             *1</f>
         <v>19160</v>
       </c>
@@ -1422,16 +1395,12 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>VLOOKUP(G8,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E8),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>Guarulhos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A9" s="18">
+    </row>
+    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
         <f>17854             *1</f>
         <v>17854</v>
       </c>
@@ -1443,16 +1412,12 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>VLOOKUP(G9,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E9),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>Campinas</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A10" s="18">
+    </row>
+    <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
         <f>7494             *1</f>
         <v>7494</v>
       </c>
@@ -1464,16 +1429,12 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>VLOOKUP(G10,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E10),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>Campinas</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A11" s="18">
+    </row>
+    <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
         <f>12630             *1</f>
         <v>12630</v>
       </c>
@@ -1485,16 +1446,12 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>VLOOKUP(G11,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E11),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>Campinas</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A12" s="18">
+    </row>
+    <row r="12" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
         <f>17608             *1</f>
         <v>17608</v>
       </c>
@@ -1506,16 +1463,12 @@
         <v>32</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>VLOOKUP(G12,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E12),Dados!C:D,2,FALSE)</f>
         <v>Ceará</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>Aurora</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A13" s="18">
+    </row>
+    <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
         <f>5740             *1</f>
         <v>5740</v>
       </c>
@@ -1527,16 +1480,12 @@
         <v>32</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>VLOOKUP(G13,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E13),Dados!C:D,2,FALSE)</f>
         <v>Ceará</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>Aurora</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A14" s="18">
+    </row>
+    <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
         <f>13700             *1</f>
         <v>13700</v>
       </c>
@@ -1548,16 +1497,12 @@
         <v>33</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>VLOOKUP(G14,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E14),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>Carapicuíba</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A15" s="18">
+    </row>
+    <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
         <f>2714             *1</f>
         <v>2714</v>
       </c>
@@ -1569,16 +1514,12 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>VLOOKUP(G15,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E15),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>Carapicuíba</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A16" s="18">
+    </row>
+    <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
         <f>3886             *1</f>
         <v>3886</v>
       </c>
@@ -1590,16 +1531,12 @@
         <v>33</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>VLOOKUP(G16,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E16),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>Carapicuíba</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A17" s="18">
+    </row>
+    <row r="17" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
         <f>5982             *1</f>
         <v>5982</v>
       </c>
@@ -1611,142 +1548,98 @@
         <v>29</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>VLOOKUP(G17,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E17),Dados!C:D,2,FALSE)</f>
         <v>Paraná</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>Barracão</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>VLOOKUP(G18,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E18),Dados!C:D,2,FALSE)</f>
         <v>Paraná</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>Cafelândia</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f>VLOOKUP(G19,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E19),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>Abaíra</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>VLOOKUP(G20,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E20),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>Abaíra</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f>VLOOKUP(G21,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E21),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>Cachoeira</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>VLOOKUP(G22,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E22),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>Cachoeira</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="23" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f>VLOOKUP(G23,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E23),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>Abaíra</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="24" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f>VLOOKUP(G24,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E24),Dados!C:D,2,FALSE)</f>
         <v>Bahia</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>Cachoeira</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f>VLOOKUP(G25,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E25),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>Limeira</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f>VLOOKUP(G26,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E26),Dados!C:D,2,FALSE)</f>
         <v>São Paulo</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>Limeira</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="2" t="str">
-        <f>VLOOKUP(G27,Dados!C:D,2,FALSE)</f>
+        <f>VLOOKUP(TRIM(E27),Dados!C:D,2,FALSE)</f>
         <v>Ceará</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cedro</v>
       </c>
     </row>
   </sheetData>
